--- a/GS/GS_p21.xlsx
+++ b/GS/GS_p21.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CitSci\pathology\RtO\rto_image_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CitSci\pathology\RtO\rto_image_analysis\GS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -376,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A98" sqref="A97:XFD98"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
